--- a/data/Raw_data/Full-time non-managerial employees paid at the adult rate, average weekly total cash earnings - industry by sex.xlsx
+++ b/data/Raw_data/Full-time non-managerial employees paid at the adult rate, average weekly total cash earnings - industry by sex.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA4F33-DFE7-484D-90D1-88E18B513C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="35550" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Full-time non-managerial employees paid at the adult rate, average weekly total cash earnings - industry by sex</t>
-  </si>
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Males ($)</t>
   </si>
@@ -85,25 +83,30 @@
     <t>All industries</t>
   </si>
   <si>
-    <t>Source: Australian Bureau of Statistics, Employee Earnings and Hours, Australia May 2021</t>
+    <t>INDUSTRY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,307 +471,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>2863.3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2326.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2774.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1684.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1356.2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1616.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>2863.3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2326.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2774.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>2257.8000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1846.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2176.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>1684.7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1356.2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1616.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1917.3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1505.3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1860.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>2257.8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1846.6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2176.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1686</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1486.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1626.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>1917.3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1505.3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1860.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1386.6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1271.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1337.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>1686</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1486.3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1626.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>1311.3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1179.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>1386.6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1271.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1337.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>1880</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1574.9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1820.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>1311.3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1179.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2">
+        <v>2150.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1817.3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2029.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>1880</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1574.9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1820.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>2346.3000000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1905.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2134.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>2150.5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1817.3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2029.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>1712.6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1340.8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1525.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>2346.3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1905.1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2134.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2">
+        <v>2266.8000000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1803.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2084.6999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
-        <v>1712.6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1340.8</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B14" s="2">
+        <v>1773.9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1458.3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1642.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1969</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1798.3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1896.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1808.1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1871.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2012.4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1670</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1770.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1620.8</v>
+      </c>
+      <c r="C18" s="2">
         <v>1525.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2266.8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1803.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2084.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1773.9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1458.3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1642.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1969</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1798.3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1896.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1998</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1808.1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1871.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="2">
+        <v>1577.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>2012.4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1670</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1770.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2">
+        <v>1536.4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1341.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1457.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>1620.8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1525.6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1577.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B20" s="2">
-        <v>1536.4</v>
+        <v>1910.1</v>
       </c>
       <c r="C20" s="2">
-        <v>1341.5</v>
+        <v>1639.7</v>
       </c>
       <c r="D20" s="2">
-        <v>1457.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1910.1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1639.7</v>
-      </c>
-      <c r="D21" s="2">
         <v>1800.9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1">
+      <c r="A23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>